--- a/src/xlsx/catalogo-produtos-spmk.xlsx
+++ b/src/xlsx/catalogo-produtos-spmk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesa_rodrigueze/Documents/vmlyr/doc/trade/xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mesa_rodrigueze/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2807F6-A469-3741-8052-123A88A45AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7F5B57-D4B7-634C-AD88-02D7334F5216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="239">
   <si>
     <t>Baltica</t>
   </si>
@@ -76,7 +77,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1657831334/LOW%20RES%20SPMK%20CATALOG/BECKER%20LATA%20354%20X6.png</t>
   </si>
   <si>
-    <t>Becker LATA 354 X6 NEGRA</t>
+    <t>BECKER LATA 354 X6 NEGRA</t>
   </si>
   <si>
     <t>7802130002458</t>
@@ -85,7 +86,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1657830422/LOW%20RES%20SPMK%20CATALOG/Becker%20LATA%20354%20X6%20NEGRA.png</t>
   </si>
   <si>
-    <t>Becker LATA 354 X6 ROJA</t>
+    <t>BECKER LATA 354 X6 ROJA</t>
   </si>
   <si>
     <t>7802130002441</t>
@@ -289,7 +290,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1659027441/LOW%20RES%20SPMK%20CATALOG/CORONA-OW-330-x18_mdkw3q.png</t>
   </si>
   <si>
-    <t>Corona OW 330 x24</t>
+    <t>CORONA OW 330 x24</t>
   </si>
   <si>
     <t>7802130002311</t>
@@ -304,7 +305,7 @@
     <t>7501064192845</t>
   </si>
   <si>
-    <t>falta foto SKU se pidio a Nacha Gajardo</t>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662606287/LOW%20RES%20SPMK%20CATALOG/CORONA_LIGHT_OW_355_X6_y2hxrq.png</t>
   </si>
   <si>
     <t>CORONA OW 710 x12</t>
@@ -343,6 +344,9 @@
     <t>7802130002878</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662599748/LOW%20RES%20SPMK%20CATALOG/CUSQUENA-LATA-354-x18_t05r1g.png</t>
+  </si>
+  <si>
     <t>CUSQUEÑA LATA 354 X24</t>
   </si>
   <si>
@@ -388,7 +392,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1659030910/LOW%20RES%20SPMK%20CATALOG/CUSQUENA-OW-330-X4-RED_mi4ajc.png</t>
   </si>
   <si>
-    <t>Cusqueña OW 330 X4 TRIGO</t>
+    <t>CUSQUEÑA OW 330 X4 TRIGO</t>
   </si>
   <si>
     <t>7753749003032</t>
@@ -403,6 +407,9 @@
     <t>7802130001901</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662605087/LOW%20RES%20SPMK%20CATALOG/CUSQUEN%CC%83A_GOLDEN_OW_X24_rxow1a.png</t>
+  </si>
+  <si>
     <t>CUSQUEÑA OW 620 X12</t>
   </si>
   <si>
@@ -436,7 +443,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661694700/LOW%20RES%20SPMK%20CATALOG/HOEEGARDEN-UNITARIO_ym9ocz.png</t>
   </si>
   <si>
-    <t>Hoegaarden ROSE OW 330 X6</t>
+    <t>HOEEGARDEN ROSE OW 330 X6</t>
   </si>
   <si>
     <t>5410228206101</t>
@@ -454,10 +461,10 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661697675/LOW%20RES%20SPMK%20CATALOG/HOEGAARDEN-OW-330-X4_nxbc3e.png</t>
   </si>
   <si>
-    <t>KM 24,7</t>
-  </si>
-  <si>
-    <t>KM 24,7 LATA 473 X4 AMBER</t>
+    <t>KM 24.7</t>
+  </si>
+  <si>
+    <t>KM 24.7 LATA 473 X4 AMBER</t>
   </si>
   <si>
     <t>78021130002021</t>
@@ -466,7 +473,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661697885/LOW%20RES%20SPMK%20CATALOG/KM-24_7-LATA-473-X4-AMBER_z5ccck.png</t>
   </si>
   <si>
-    <t>KM 24,7 LATA 473 X4 IPA</t>
+    <t>KM 24.7 LATA 473 X4 IPA</t>
   </si>
   <si>
     <t>7802130002014</t>
@@ -475,7 +482,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661698013/LOW%20RES%20SPMK%20CATALOG/KM-24_7-LATA-473-X4-IPA_zmlmin.png</t>
   </si>
   <si>
-    <t>KM 24,7 OW 355 X4 BOHEMIAN</t>
+    <t>KM 24.7 OW 355 X4 BOHEMIAN</t>
   </si>
   <si>
     <t>7802130002373</t>
@@ -484,7 +491,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661698307/LOW%20RES%20SPMK%20CATALOG/KM-24_7-OW-355-X4-BOHEMIAN_eevmvh.png</t>
   </si>
   <si>
-    <t>KM 24,7 OW 355 X4 AMBER</t>
+    <t>KM 24.7 OW 355 X4 AMBER</t>
   </si>
   <si>
     <t>7802130002144</t>
@@ -493,7 +500,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661698543/LOW%20RES%20SPMK%20CATALOG/KM-24_7-OW-355-X4-AMBER_cydmcr.png</t>
   </si>
   <si>
-    <t>KM 24,7 OW 355 X4 IPA</t>
+    <t>KM 24.7 OW 355 X4 IPA</t>
   </si>
   <si>
     <t>7802130002151</t>
@@ -517,7 +524,7 @@
     <t>Michelob Ultra</t>
   </si>
   <si>
-    <t>Michelob Ultra LATA 355 X12</t>
+    <t>MICHELOB Ultra LATA 355 X12</t>
   </si>
   <si>
     <t>5014379006810</t>
@@ -532,7 +539,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661701245/LOW%20RES%20SPMK%20CATALOG/MICHELOB-ULTRA-OW-355-X6_acpe4p.png</t>
   </si>
   <si>
-    <t>MODELO</t>
+    <t>Modelo</t>
   </si>
   <si>
     <t>MODELO ESPECIAL OW UNITARIO</t>
@@ -592,7 +599,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1661708107/LOW%20RES%20SPMK%20CATALOG/PILSEN-DEL-SUR-LATA-473-X6_r8u93s.png</t>
   </si>
   <si>
-    <t>Pilsen del Sur OW 300 X6</t>
+    <t>PILSEN DEL SUR OW 300 X6</t>
   </si>
   <si>
     <t>7802130002854</t>
@@ -607,6 +614,9 @@
     <t>7802130002908</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662581466/LOW%20RES%20SPMK%20CATALOG/PILSEN-DEL-SUR-OW-X24_qj5kyj.png</t>
+  </si>
+  <si>
     <t>Quilmes</t>
   </si>
   <si>
@@ -616,7 +626,10 @@
     <t>7802130003042</t>
   </si>
   <si>
-    <t>Quilmes LATA 473 X6</t>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662605716/LOW%20RES%20SPMK%20CATALOG/QUILMES_LATA_354_X12_a6jxwc.png</t>
+  </si>
+  <si>
+    <t>QUILMES LATA 473 X6</t>
   </si>
   <si>
     <t>7792798012947</t>
@@ -652,6 +665,9 @@
     <t>7802130002953</t>
   </si>
   <si>
+    <t>https://res.cloudinary.com/dkktirn06/image/upload/v1662580984/LOW%20RES%20SPMK%20CATALOG/STELLA-ARTOIS-LATA-354-X24_di8jjx.png</t>
+  </si>
+  <si>
     <t>STELLA ARTOIS LATA 355 X6</t>
   </si>
   <si>
@@ -670,7 +686,7 @@
     <t>https://res.cloudinary.com/dkktirn06/image/upload/v1660163942/LOW%20RES%20SPMK%20CATALOG/STELLA_ARTOIS_LATA_473_X6_aa4ro1.png</t>
   </si>
   <si>
-    <t>Stella Artois OW 330 X12</t>
+    <t>STELLA ARTOIS OW 330 X12</t>
   </si>
   <si>
     <t>7802130001758</t>
@@ -730,17 +746,17 @@
     <t>ean</t>
   </si>
   <si>
+    <t xml:space="preserve"> cajaporpallet</t>
+  </si>
+  <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>cajaporpallet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,31 +777,19 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -798,7 +802,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -808,7 +811,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,14 +824,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -926,12 +923,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -939,25 +1003,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -970,32 +1031,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1314,45 +1373,45 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="14" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" customWidth="1"/>
     <col min="8" max="8" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>231</v>
+        <v>235</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,7 +1421,7 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>473</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1371,7 +1430,7 @@
       <c r="E2" s="5">
         <v>5.8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4">
@@ -1388,7 +1447,7 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1397,7 +1456,7 @@
       <c r="E3" s="5">
         <v>5.8</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4">
@@ -1414,7 +1473,7 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>354</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1423,7 +1482,7 @@
       <c r="E4" s="5">
         <v>4.5</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4">
@@ -1440,7 +1499,7 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>354</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1449,7 +1508,7 @@
       <c r="E5" s="5">
         <v>5.6</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4">
@@ -1466,7 +1525,7 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>354</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1475,7 +1534,7 @@
       <c r="E6" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4">
@@ -1492,7 +1551,7 @@
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>354</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1501,7 +1560,7 @@
       <c r="E7" s="5">
         <v>4.5</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="4">
@@ -1518,7 +1577,7 @@
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>354</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1527,7 +1586,7 @@
       <c r="E8" s="5">
         <v>4.5</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="4">
@@ -1544,7 +1603,7 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>354</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1553,7 +1612,7 @@
       <c r="E9" s="5">
         <v>4.5</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="4">
@@ -1570,7 +1629,7 @@
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>473</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1579,7 +1638,7 @@
       <c r="E10" s="5">
         <v>4.5</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="4">
@@ -1596,7 +1655,7 @@
       <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>473</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1605,7 +1664,7 @@
       <c r="E11" s="5">
         <v>5.6</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="4">
@@ -1622,7 +1681,7 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>473</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1631,7 +1690,7 @@
       <c r="E12" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="4">
@@ -1648,7 +1707,7 @@
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>330</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1657,7 +1716,7 @@
       <c r="E13" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="4">
@@ -1674,7 +1733,7 @@
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>355</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1683,7 +1742,7 @@
       <c r="E14" s="5">
         <v>4.2</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="14">
         <v>18200530470</v>
       </c>
       <c r="G14" s="4">
@@ -1700,7 +1759,7 @@
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>355</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1709,7 +1768,7 @@
       <c r="E15" s="5">
         <v>4.2</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="14">
         <v>18200008337</v>
       </c>
       <c r="G15" s="4">
@@ -1726,7 +1785,7 @@
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>354</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1735,7 +1794,7 @@
       <c r="E16" s="5">
         <v>5</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="4">
@@ -1752,7 +1811,7 @@
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>354</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1761,7 +1820,7 @@
       <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="4">
@@ -1778,7 +1837,7 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>354</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1787,7 +1846,7 @@
       <c r="E18" s="5">
         <v>5</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="4">
@@ -1804,7 +1863,7 @@
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>473</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1813,7 +1872,7 @@
       <c r="E19" s="5">
         <v>5</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G19" s="4">
@@ -1830,7 +1889,7 @@
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>740</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1839,7 +1898,7 @@
       <c r="E20" s="5">
         <v>5</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="14" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="4">
@@ -1856,7 +1915,7 @@
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>355</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1865,7 +1924,7 @@
       <c r="E21" s="5">
         <v>5</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="14">
         <v>18200007712</v>
       </c>
       <c r="G21" s="4">
@@ -1882,7 +1941,7 @@
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>355</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1891,7 +1950,7 @@
       <c r="E22" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="14">
         <v>18200008344</v>
       </c>
       <c r="G22" s="4">
@@ -1908,7 +1967,7 @@
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>355</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1917,7 +1976,7 @@
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="4">
@@ -1934,7 +1993,7 @@
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>946</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1943,7 +2002,7 @@
       <c r="E24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="14" t="s">
         <v>71</v>
       </c>
       <c r="G24" s="4">
@@ -1960,7 +2019,7 @@
       <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>207</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1969,7 +2028,7 @@
       <c r="E25" s="5">
         <v>4.5</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="14">
         <v>80660954011</v>
       </c>
       <c r="G25" s="4">
@@ -1986,7 +2045,7 @@
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>330</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1995,7 +2054,7 @@
       <c r="E26" s="5">
         <v>4.5</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="14" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="4">
@@ -2012,7 +2071,7 @@
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>330</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -2021,7 +2080,7 @@
       <c r="E27" s="5">
         <v>4.5</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="14" t="s">
         <v>80</v>
       </c>
       <c r="G27" s="4">
@@ -2038,7 +2097,7 @@
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>330</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -2047,7 +2106,7 @@
       <c r="E28" s="5">
         <v>4.5</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="14" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="4">
@@ -2064,7 +2123,7 @@
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>330</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2073,7 +2132,7 @@
       <c r="E29" s="5">
         <v>4.5</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="14" t="s">
         <v>86</v>
       </c>
       <c r="G29" s="4">
@@ -2083,29 +2142,29 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8">
         <v>355</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>3.9</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <v>84</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2116,7 +2175,7 @@
       <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>710</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2125,7 +2184,7 @@
       <c r="E31" s="5">
         <v>4.5</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="4">
@@ -2142,7 +2201,7 @@
       <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>354</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2151,7 +2210,7 @@
       <c r="E32" s="5">
         <v>4.8</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G32" s="4">
@@ -2168,7 +2227,7 @@
       <c r="B33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>354</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2177,7 +2236,7 @@
       <c r="E33" s="5">
         <v>4.8</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="14" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="4">
@@ -2187,29 +2246,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="8">
         <v>354</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="4">
         <v>4.8</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="4">
         <v>195</v>
       </c>
-      <c r="H34" s="17"/>
+      <c r="H34" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -2218,23 +2279,23 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>354</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="4">
         <v>4.8</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>104</v>
+      <c r="F35" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="G35" s="4">
         <v>130</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2244,23 +2305,23 @@
       <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>473</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36" s="5">
         <v>4.8</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>107</v>
+      <c r="F36" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="G36" s="4">
         <v>100</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2270,23 +2331,23 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>710</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="4">
         <v>4.8</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>110</v>
+      <c r="F37" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="G37" s="4">
         <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2296,23 +2357,23 @@
       <c r="B38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>330</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="5">
         <v>4.8</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>113</v>
+      <c r="F38" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="G38" s="4">
         <v>84</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2322,23 +2383,23 @@
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>330</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" s="5">
         <v>5</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>116</v>
+      <c r="F39" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="G39" s="4">
         <v>84</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2348,48 +2409,50 @@
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>330</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>119</v>
+      <c r="F40" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="G40" s="4">
         <v>84</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="16">
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8">
         <v>330</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="4">
         <v>4.8</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="F41" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="4">
         <v>84</v>
       </c>
-      <c r="H41" s="17"/>
+      <c r="H41" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -2398,849 +2461,855 @@
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>620</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E42" s="4">
         <v>4.8</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>124</v>
+      <c r="F42" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="G42" s="4">
         <v>98</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>355</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E43" s="5">
         <v>5.9</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>128</v>
+      <c r="F43" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="G43" s="4">
         <v>54</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>250</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E44" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>132</v>
+      <c r="F44" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="G44" s="4">
         <v>72</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>250</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E45" s="4">
         <v>3</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>135</v>
+      <c r="F45" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G45" s="4">
         <v>91</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>330</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E46" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>138</v>
+      <c r="F46" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="G46" s="4">
         <v>72</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>473</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E47" s="5">
         <v>4.5</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>142</v>
+      <c r="F47" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="G47" s="4">
         <v>90</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>473</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E48" s="5">
         <v>4.5</v>
       </c>
-      <c r="F48" s="23" t="s">
-        <v>145</v>
+      <c r="F48" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="G48" s="4">
         <v>90</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>140</v>
+      <c r="A49" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>355</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E49" s="5">
         <v>5.2</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>148</v>
+      <c r="F49" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="G49" s="4">
         <v>72</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="9">
+      <c r="A50" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="8">
         <v>355</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E50" s="5">
         <v>4.5</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>151</v>
+      <c r="F50" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="G50" s="4">
         <v>72</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="A51" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="8">
         <v>355</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E51" s="5">
         <v>4.5</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>154</v>
+      <c r="F51" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="G51" s="4">
         <v>72</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>156</v>
+      <c r="A52" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>330</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" s="5">
         <v>6.6</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>158</v>
+      <c r="F52" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="G52" s="4">
         <v>72</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>355</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E53" s="5">
         <v>3.5</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>162</v>
+      <c r="F53" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="G53" s="4">
         <v>90</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>355</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E54" s="5">
         <v>3.5</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="14">
         <v>18200201783</v>
       </c>
       <c r="G54" s="4">
         <v>49</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>250</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E55" s="5">
         <v>4.5</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>168</v>
+      <c r="F55" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="G55" s="4">
         <v>72</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>250</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E56" s="5">
         <v>5.3</v>
       </c>
-      <c r="F56" s="23" t="s">
-        <v>171</v>
+      <c r="F56" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="G56" s="4">
         <v>72</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>355</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E57" s="5">
         <v>4.5</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>174</v>
+      <c r="F57" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="G57" s="4">
         <v>72</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>355</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E58" s="5">
         <v>5.3</v>
       </c>
-      <c r="F58" s="23" t="s">
-        <v>177</v>
+      <c r="F58" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="G58" s="4">
         <v>72</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>354</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E59" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>181</v>
+      <c r="F59" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="G59" s="4">
         <v>260</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>473</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E60" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F60" s="23" t="s">
-        <v>184</v>
+      <c r="F60" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="G60" s="4">
         <v>100</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>300</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E61" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>187</v>
+      <c r="F61" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="G61" s="4">
         <v>72</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="16">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="8">
         <v>300</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="D62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F62" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="G62" s="7">
+      <c r="F62" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62" s="4">
         <v>60</v>
       </c>
-      <c r="H62" s="17"/>
-    </row>
-    <row r="63" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="19" t="s">
+      <c r="H62" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>354</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E63" s="19">
+      <c r="D63" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="19">
+      <c r="F63" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="17">
         <v>84</v>
       </c>
-      <c r="H63" s="21"/>
+      <c r="H63" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>473</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E64" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F64" s="23" t="s">
-        <v>195</v>
+      <c r="F64" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="G64" s="4">
         <v>100</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>196</v>
+      <c r="H64" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>354</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E65" s="4">
         <v>5</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>199</v>
+      <c r="F65" s="14" t="s">
+        <v>203</v>
       </c>
       <c r="G65" s="4">
         <v>286</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>200</v>
+      <c r="H65" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>354</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E66" s="4">
         <v>5</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>202</v>
+      <c r="F66" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="G66" s="4">
         <v>260</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="H66" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="8">
         <v>354</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="7">
-        <v>5</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="G67" s="7">
+      <c r="D67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="4">
+        <v>5</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="4">
         <v>48</v>
       </c>
-      <c r="H67" s="17"/>
+      <c r="H67" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>355</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E68" s="4">
         <v>5</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>207</v>
+      <c r="F68" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="G68" s="4">
         <v>120</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>208</v>
+      <c r="H68" s="10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>473</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E69" s="4">
         <v>5</v>
       </c>
-      <c r="F69" s="23" t="s">
-        <v>210</v>
+      <c r="F69" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="G69" s="4">
         <v>100</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>211</v>
+      <c r="H69" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>330</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E70" s="4">
         <v>5</v>
       </c>
-      <c r="F70" s="23" t="s">
-        <v>213</v>
+      <c r="F70" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="G70" s="4">
         <v>100</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>214</v>
+      <c r="H70" s="10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>330</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E71" s="4">
         <v>5</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>216</v>
+      <c r="F71" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="G71" s="4">
         <v>84</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>217</v>
+      <c r="H71" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>330</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E72" s="4">
         <v>5</v>
       </c>
-      <c r="F72" s="23" t="s">
-        <v>219</v>
+      <c r="F72" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="G72" s="4">
         <v>48</v>
       </c>
-      <c r="H72" s="12" t="s">
-        <v>217</v>
+      <c r="H72" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>330</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E73" s="4">
         <v>5</v>
       </c>
-      <c r="F73" s="23" t="s">
-        <v>221</v>
+      <c r="F73" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="G73" s="4">
         <v>60</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>222</v>
+      <c r="H73" s="10" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>330</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E74" s="4">
         <v>5</v>
       </c>
-      <c r="F74" s="23" t="s">
-        <v>224</v>
+      <c r="F74" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="G74" s="4">
         <v>60</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>225</v>
+      <c r="H74" s="12" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3312,6 +3381,12 @@
     <hyperlink ref="H60" r:id="rId65" xr:uid="{D97CD5E8-B545-486B-9C3D-F6BD0585EC34}"/>
     <hyperlink ref="H61" r:id="rId66" xr:uid="{915AEE03-B9F7-40E5-91D2-F23DD6399FE2}"/>
     <hyperlink ref="H13" r:id="rId67" xr:uid="{CC3EC559-C4D0-45C9-AA4D-692DC1F95347}"/>
+    <hyperlink ref="H67" r:id="rId68" xr:uid="{5BDC7D13-62BC-4119-9231-0AF6D6F2FF0E}"/>
+    <hyperlink ref="H62" r:id="rId69" xr:uid="{51A7D80F-FB98-4A51-B88F-96473C917BE8}"/>
+    <hyperlink ref="H34" r:id="rId70" xr:uid="{053BF703-98CB-4E04-8FAC-99833CECBEA1}"/>
+    <hyperlink ref="H41" r:id="rId71" xr:uid="{551BC88F-695E-4884-8044-DE5A0A2A1215}"/>
+    <hyperlink ref="H63" r:id="rId72" xr:uid="{33180B80-4CC0-4221-8818-22E2623CDFD5}"/>
+    <hyperlink ref="H30" r:id="rId73" xr:uid="{A5CFD5DD-DDD1-466F-B042-9185180FB19A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
